--- a/data/trans_media/Q15_1-Habitat-trans_media.xlsx
+++ b/data/trans_media/Q15_1-Habitat-trans_media.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,72</t>
+          <t>1,0; 1,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,42</t>
+          <t>1,0; 1,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,8</t>
+          <t>1,0; 1,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,69</t>
+          <t>1,28; 3,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,42</t>
+          <t>1,0; 1,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,43</t>
+          <t>1,0; 1,4</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,65</t>
+          <t>1,16; 2,73</t>
         </is>
       </c>
     </row>
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,25</t>
+          <t>1,04; 1,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,51</t>
+          <t>1,04; 1,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,12</t>
+          <t>1,09; 2,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,27 +889,27 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,33</t>
+          <t>1,15; 2,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,44</t>
+          <t>1,09; 1,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 1,8</t>
+          <t>1,28; 1,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,77</t>
+          <t>1,09; 1,69</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,77</t>
+          <t>1,14; 1,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 1,86</t>
+          <t>1,24; 1,91</t>
         </is>
       </c>
     </row>
@@ -1004,57 +1004,57 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,47</t>
+          <t>1,02; 1,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,26</t>
+          <t>1,05; 1,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,19</t>
+          <t>1,0; 1,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 2,2</t>
+          <t>1,11; 2,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,13</t>
+          <t>1,0; 1,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,66</t>
+          <t>1,14; 1,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 1,93</t>
+          <t>1,22; 1,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,56</t>
+          <t>1,11; 1,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,24</t>
+          <t>1,02; 1,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,38</t>
+          <t>1,12; 1,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,47</t>
+          <t>1,11; 1,46</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>1,04; 1,29</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 1,21</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1,06; 1,5</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 1,21</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1,07; 1,47</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1,06; 1,31</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 1,27</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1,42; 2,41</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1,09; 1,31</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1,06; 1,2</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
           <t>1,05; 1,29</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,02; 1,2</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,06; 1,51</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 1,21</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>1,08; 1,52</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>1,07; 1,32</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 1,19</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>1,4; 2,22</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>1,09; 1,33</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>1,05; 1,2</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>1,05; 1,29</t>
-        </is>
-      </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,28; 1,79</t>
+          <t>1,27; 1,83</t>
         </is>
       </c>
     </row>
@@ -1289,37 +1289,37 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 1,8</t>
+          <t>1,14; 1,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,29</t>
+          <t>1,05; 1,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,37</t>
+          <t>1,06; 1,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,16</t>
+          <t>1,0; 1,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,37</t>
+          <t>1,08; 1,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,44</t>
+          <t>1,05; 1,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,45</t>
+          <t>1,11; 1,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,17 +1329,17 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 1,52</t>
+          <t>1,14; 1,52</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1,29</t>
+          <t>1,07; 1,28</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,33</t>
+          <t>1,12; 1,33</t>
         </is>
       </c>
     </row>
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,21</t>
+          <t>1,08; 1,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,32</t>
+          <t>1,11; 1,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,47 +1439,47 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,13; 1,53</t>
+          <t>1,14; 1,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,32</t>
+          <t>1,07; 1,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,46</t>
+          <t>1,17; 1,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,38</t>
+          <t>1,15; 1,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,29; 1,55</t>
+          <t>1,29; 1,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1,22</t>
+          <t>1,09; 1,21</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,32</t>
+          <t>1,16; 1,33</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,24</t>
+          <t>1,12; 1,25</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,25; 1,47</t>
+          <t>1,24; 1,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/Q15_1-Habitat-trans_media.xlsx
+++ b/data/trans_media/Q15_1-Habitat-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,73</t>
+          <t>1,0; 1,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,39</t>
+          <t>1,0; 3,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,82</t>
+          <t>1,0; 1,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,44</t>
+          <t>1,0; 1,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,86</t>
+          <t>1,0; 2,06</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,4</t>
+          <t>1,0; 1,36</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,24</t>
+          <t>1,06; 1,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,56</t>
+          <t>1,04; 1,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,43</t>
+          <t>1,07; 2,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,24</t>
+          <t>1,17; 2,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,45</t>
+          <t>1,1; 1,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,69</t>
+          <t>1,09; 1,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,71</t>
+          <t>1,14; 1,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,3</t>
+          <t>1,08; 1,29</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,43</t>
+          <t>1,02; 1,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,25</t>
+          <t>1,06; 1,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,18</t>
+          <t>1,0; 1,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,15</t>
+          <t>1,0; 1,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,68</t>
+          <t>1,15; 1,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 1,97</t>
+          <t>1,19; 1,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,23</t>
+          <t>1,03; 1,31</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,4</t>
+          <t>1,12; 1,39</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,46</t>
+          <t>1,11; 1,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,29</t>
+          <t>1,06; 1,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,21</t>
+          <t>1,03; 1,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,5</t>
+          <t>1,06; 1,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,47</t>
+          <t>1,08; 1,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,31</t>
+          <t>1,06; 1,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,27</t>
+          <t>1,0; 1,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,31</t>
+          <t>1,09; 1,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,2</t>
+          <t>1,06; 1,21</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,29</t>
+          <t>1,05; 1,3</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,17</t>
+          <t>1,03; 1,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,9</t>
+          <t>1,13; 1,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,31</t>
+          <t>1,05; 1,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,14</t>
+          <t>1,0; 1,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1,37</t>
+          <t>1,07; 1,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,44</t>
+          <t>1,06; 1,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,52</t>
+          <t>1,14; 1,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,31</t>
+          <t>1,11; 1,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,34</t>
+          <t>1,07; 1,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,41</t>
+          <t>1,17; 1,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,15; 1,39</t>
+          <t>1,15; 1,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,21</t>
+          <t>1,08; 1,21</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,33</t>
+          <t>1,16; 1,3</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
